--- a/public/templates/finance_template.xlsx
+++ b/public/templates/finance_template.xlsx
@@ -11,16 +11,16 @@
     <sheet name="2019.12" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019.12'!$A$1:$AL$4</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'2019.12'!$A$1:$AL$4</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">'2019.12'!$A$1:$AL$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019.12'!$A$1:$AM$4</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'2019.12'!$A$1:$AM$4</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'2019.12'!$A$1:$AM$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Client</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Expert Company</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
   <si>
     <t>Expert Title</t>
@@ -177,6 +180,9 @@
     <t>公司名称</t>
   </si>
   <si>
+    <t>科室</t>
+  </si>
+  <si>
     <t>职位</t>
   </si>
   <si>
@@ -284,17 +290,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -322,7 +322,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,8 +351,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -346,6 +369,57 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -360,57 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -419,31 +442,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,7 +458,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,13 +479,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,169 +653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +712,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -723,6 +732,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,17 +781,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,161 +800,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -944,34 +944,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1364,7 +1364,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:AML4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1381,33 +1381,34 @@
     <col min="7" max="7" width="8.66666666666667" style="2"/>
     <col min="8" max="8" width="9.58333333333333" style="2"/>
     <col min="9" max="9" width="41.9083333333333" style="2"/>
-    <col min="10" max="10" width="39" style="2"/>
-    <col min="11" max="11" width="8.66666666666667" style="2"/>
-    <col min="12" max="12" width="5.33333333333333" style="2"/>
-    <col min="13" max="13" width="8.90833333333333" style="2"/>
-    <col min="14" max="14" width="11" style="2"/>
-    <col min="15" max="15" width="8.08333333333333" style="2"/>
-    <col min="16" max="16" width="5.25" style="2"/>
-    <col min="17" max="17" width="7.90833333333333" style="2"/>
-    <col min="18" max="18" width="7.58333333333333" style="2"/>
-    <col min="19" max="19" width="7.33333333333333" style="2"/>
-    <col min="20" max="20" width="8.66666666666667" style="2"/>
-    <col min="21" max="21" width="7.58333333333333" style="2"/>
-    <col min="22" max="23" width="8.08333333333333" style="2"/>
-    <col min="24" max="25" width="8.66666666666667" style="2"/>
-    <col min="26" max="26" width="11.75" style="2"/>
-    <col min="27" max="27" width="23" style="2"/>
-    <col min="28" max="28" width="26.9166666666667" style="2"/>
-    <col min="29" max="29" width="6.58333333333333" style="2"/>
-    <col min="30" max="30" width="13.0833333333333" style="2"/>
-    <col min="31" max="31" width="19.0833333333333" style="2"/>
-    <col min="32" max="32" width="21" style="2"/>
-    <col min="33" max="33" width="19.9166666666667" style="2"/>
-    <col min="34" max="34" width="30" style="2"/>
-    <col min="35" max="1026" width="8.66666666666667" style="2"/>
+    <col min="10" max="10" width="9.58333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="39" style="2"/>
+    <col min="12" max="12" width="8.66666666666667" style="2"/>
+    <col min="13" max="13" width="5.33333333333333" style="2"/>
+    <col min="14" max="14" width="8.90833333333333" style="2"/>
+    <col min="15" max="15" width="11" style="2"/>
+    <col min="16" max="16" width="8.08333333333333" style="2"/>
+    <col min="17" max="17" width="5.25" style="2"/>
+    <col min="18" max="18" width="7.90833333333333" style="2"/>
+    <col min="19" max="19" width="7.58333333333333" style="2"/>
+    <col min="20" max="20" width="7.33333333333333" style="2"/>
+    <col min="21" max="21" width="8.66666666666667" style="2"/>
+    <col min="22" max="22" width="7.58333333333333" style="2"/>
+    <col min="23" max="24" width="8.08333333333333" style="2"/>
+    <col min="25" max="26" width="8.66666666666667" style="2"/>
+    <col min="27" max="27" width="11.75" style="2"/>
+    <col min="28" max="28" width="23" style="2"/>
+    <col min="29" max="29" width="26.9166666666667" style="2"/>
+    <col min="30" max="30" width="6.58333333333333" style="2"/>
+    <col min="31" max="31" width="13.0833333333333" style="2"/>
+    <col min="32" max="32" width="19.0833333333333" style="2"/>
+    <col min="33" max="33" width="21" style="2"/>
+    <col min="34" max="34" width="19.9166666666667" style="2"/>
+    <col min="35" max="35" width="30" style="2"/>
+    <col min="36" max="1027" width="8.66666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:38">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:39">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1471,10 +1472,10 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="3"/>
       <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
@@ -1484,24 +1485,24 @@
       <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AD1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>28</v>
+      <c r="AG1" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="AH1" s="3" t="s">
         <v>29</v>
@@ -1509,116 +1510,121 @@
       <c r="AI1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="5"/>
-      <c r="AL1" s="5"/>
+      <c r="AJ1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="5"/>
+      <c r="AM1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:1025">
+    <row r="2" ht="16.5" spans="1:1026">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ2"/>
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
@@ -2608,16 +2614,16 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
       <c r="AMK2"/>
+      <c r="AML2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:38">
+    <row r="3" s="1" customFormat="1" spans="1:39">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
       <c r="H3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="K3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -2626,17 +2632,18 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="AA3" s="10"/>
-      <c r="AC3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AB3" s="10"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
-      <c r="AF3" s="11"/>
+      <c r="AF3" s="5"/>
       <c r="AG3" s="11"/>
-      <c r="AI3" s="5"/>
+      <c r="AH3" s="11"/>
       <c r="AJ3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AM3" s="5"/>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2647,33 +2654,34 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="5"/>
+      <c r="Q4" s="1"/>
+      <c r="T4" s="1"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
-      <c r="Y4" s="1"/>
+      <c r="Y4" s="5"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="10"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="10"/>
+      <c r="AF4" s="1"/>
       <c r="AG4" s="10"/>
-      <c r="AH4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AL4" s="1"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AM4" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL4">
+  <autoFilter ref="A1:AM4">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
